--- a/xlsx/国民生产总值_intext.xlsx
+++ b/xlsx/国民生产总值_intext.xlsx
@@ -15,69 +15,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>国民生产总值</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>缩写</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_国民生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A1</t>
+  </si>
+  <si>
+    <t>劳务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
+  </si>
+  <si>
+    <t>国民收入</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E6%80%BB%E6%94%B6%E5%85%A5</t>
+  </si>
+  <si>
+    <t>国民总收入</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>縮寫</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_国民生产总值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A1</t>
-  </si>
-  <si>
-    <t>劳务</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
-  </si>
-  <si>
-    <t>國民收入</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
-  </si>
-  <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E6%80%BB%E6%94%B6%E5%85%A5</t>
-  </si>
-  <si>
-    <t>国民总收入</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +730,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
